--- a/data/landings/cdfw/public/fish_bulletins/raw/fb135/raw/Table18.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb135/raw/Table18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb135/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A09339-04DA-7247-9FAA-E153A7566EB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB774B6-8880-D54C-A283-ED3E7EC8DDDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20800" yWindow="720" windowWidth="19140" windowHeight="25800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -491,13 +491,12 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
@@ -519,10 +518,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2">
         <v>1495827</v>
